--- a/Outputs/Gas Transfer Velocity/Raymond Paper Method7_25.xlsx
+++ b/Outputs/Gas Transfer Velocity/Raymond Paper Method7_25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nehemiah\Desktop\Ecuador\Outputs\Gas Transfer Velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402AE046-D102-4F65-943F-07B20F6D70D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C9B453-A70E-4280-94A6-0E5A8E16F399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{CAE307F3-065B-4B3A-93A2-AE894BE29F9D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Position</t>
   </si>
@@ -150,7 +150,16 @@
     <t>Depth/2 (m)</t>
   </si>
   <si>
-    <t>K600 (m/day)</t>
+    <t>K600 Avg. (m/day)</t>
+  </si>
+  <si>
+    <t>K600 min (m/Day)</t>
+  </si>
+  <si>
+    <t>K600 Max (m/Day)</t>
+  </si>
+  <si>
+    <t>Area (m^2)</t>
   </si>
 </sst>
 </file>
@@ -503,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2D9081-D93F-4AAD-9C1E-D8F00E04EC2A}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,10 +523,13 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="7" max="7" width="10.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="15.90625" customWidth="1"/>
+    <col min="10" max="10" width="16.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +554,17 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -568,11 +589,23 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H2">
-        <f>((E2*D2)^0.89)*G2*5037</f>
-        <v>788.22728832471535</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <f>((E2*D2)^0.89)*(G2^0.54)*5037</f>
+        <v>2594.9158863412295</v>
+      </c>
+      <c r="I2">
+        <f>((E2*D2)^0.87)*(G2^0.51)*4433</f>
+        <v>2427.8356773621554</v>
+      </c>
+      <c r="J2">
+        <f>((E2*D2)^0.91)*(G2^0.57)*5641</f>
+        <v>2733.614124977089</v>
+      </c>
+      <c r="K2">
+        <f>B2*G2</f>
+        <v>0.38253375000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -597,11 +630,23 @@
         <v>0.06</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="2">((E3*D3)^0.89)*G3*5037</f>
-        <v>1630.4065120994471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <f t="shared" ref="H3:H35" si="2">((E3*D3)^0.89)*(G3^0.54)*5037</f>
+        <v>5947.6626316499396</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I35" si="3">((E3*D3)^0.87)*(G3^0.51)*4433</f>
+        <v>5483.7638506863832</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J35" si="4">((E3*D3)^0.91)*(G3^0.57)*5641</f>
+        <v>6358.0485114871071</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K35" si="5">B3*G3</f>
+        <v>0.71465999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -627,10 +672,22 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>2884.0488900430214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>14471.942924251132</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>13242.165063128048</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>15588.51030325387</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>7.9619999999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -656,10 +713,22 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>791.32989610099969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3139.2895292510038</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2945.8773897655769</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>3297.2965272201805</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.39650000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -685,10 +754,22 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>204.82435228800071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>957.43718311350563</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>928.64595809016851</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>972.927179746761</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.32970000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -714,10 +795,22 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>309.09136270797853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1086.7927315244237</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1039.5535541989382</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1119.8413819159612</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.26611000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -743,10 +836,22 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>1608.3835426119742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6106.9277712510566</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>5636.0184063338074</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>6522.0345254359518</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.50517500000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -772,10 +877,22 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>920.31599898664376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2654.2203339089142</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2469.3371623616231</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2811.9233678128016</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -801,10 +918,22 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>215.63985913265643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1303.9328944196839</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1268.593690046436</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>1320.9849365776886</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.10696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -830,10 +959,22 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>944.99642168492574</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3935.0695048954444</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3680.8506933945391</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>4146.3555793624819</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.39541500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -859,10 +1000,22 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>266.95337259227057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1111.6233369898189</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1069.7699889328603</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1138.5047067497296</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0.35982000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -888,10 +1041,22 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>1117.1672131010118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4652.0077021080515</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>4335.1365369020123</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>4920.2593940183615</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0.32201999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -917,10 +1082,22 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>264.00832188094944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1160.5664737778877</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>1118.1398375461529</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>1187.2819066985453</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.44456000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -946,10 +1123,22 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>2307.4890663932738</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>6813.7593886161721</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>6211.9373326815194</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>7366.4195529236622</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.28898999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -975,10 +1164,22 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>215.3707757933133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>854.39868338845099</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>825.55180923648675</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>871.53882101198099</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0.43945000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1004,10 +1205,22 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>779.43267393502424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1958.0558450973901</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>1824.3529631007439</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>2071.3391365779503</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0.390015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1033,10 +1246,22 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>2576.9839021969342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>5671.348736498433</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>5132.8572813820747</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>6176.2298065338255</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0.85157999999999989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1062,10 +1287,22 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>615.57371879549794</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2877.4565169553534</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2722.7599940580749</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>2997.2164491264862</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0.75165999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1091,10 +1328,22 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>167.21803603474513</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>839.08767349783091</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>818.5231117593388</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>847.80049357269695</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.25838999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1120,10 +1369,22 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>1047.8899182067248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4363.5293922811279</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>4072.1619033864986</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>4608.5118023878822</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0.29142000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1149,10 +1410,22 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>830.86426475426015</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3883.8171941461856</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>3650.3323303843372</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>4072.8187609203364</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.20275500000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1178,10 +1451,22 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>299.41243369274525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2066.6543768210204</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2000.1959509106521</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>2104.6170763404743</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>8.9189999999999992E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1207,10 +1492,22 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>236.43308477780499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+        <v>831.3197618245307</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>799.98804474032352</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>851.45684563068755</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0.57862999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1236,10 +1533,22 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>237.27761566742382</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1294.8049935045162</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>1254.899413606443</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>1316.7694565125705</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>8.4100000000000008E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1265,10 +1574,22 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>521.01923571972975</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2290.3727157599487</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2173.1902196188053</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>2379.1647158428018</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0.29664000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1294,10 +1615,22 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>395.62224225315839</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+        <v>1092.0438185021781</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>1034.6926027472871</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>1136.0010030545361</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0.52426000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1323,10 +1656,22 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>588.87430648877876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+        <v>2235.9174666960157</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2110.626507881519</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>2334.5870829821465</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.21362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1352,10 +1697,22 @@
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>329.79850437984186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+        <v>814.76016113513265</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>773.72852457351541</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>845.63099354135511</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>1.4211400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1381,10 +1738,22 @@
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>278.14625723468157</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+        <v>737.64915155179062</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>704.00382897725876</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>761.78883379648232</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0.38231999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1410,10 +1779,22 @@
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>106.56138096756251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+        <v>340.54808779430311</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>333.11385590862335</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>343.14219401018323</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>0.70087999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -1439,10 +1820,22 @@
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>346.84000871929697</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+        <v>886.57452166266</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>841.44292168301251</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>920.69494920475995</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>1.1099400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -1468,10 +1861,22 @@
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>314.97260279935745</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+        <v>908.39090909513027</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>865.72620506792782</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>939.45271160518575</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0.46200000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1497,10 +1902,22 @@
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>24.519977620757036</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66.313059101920174</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>66.859896449684868</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>64.824974631341519</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0.95852500000000018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1526,7 +1943,19 @@
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>240.82745205600926</v>
+        <v>626.79768659984086</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>599.96387340407443</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>645.41580881118853</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0.50024999999999997</v>
       </c>
     </row>
   </sheetData>
